--- a/CSD_Weekly_status.xlsx
+++ b/CSD_Weekly_status.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prduhan\OneDrive - Capgemini\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bench_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254E74DD-83C0-4C4C-A9F4-4312AD236888}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="week-27-03-2020" sheetId="24" r:id="rId1"/>
@@ -22,18 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -275,18 +270,9 @@
     <t>M S Thejashree (thejms)</t>
   </si>
   <si>
-    <t>Singh Rajpal (rajpasin)</t>
-  </si>
-  <si>
-    <t>Learning spring boot.</t>
-  </si>
-  <si>
     <t>K S Nayana (nayans)</t>
   </si>
   <si>
-    <t>Medical leave</t>
-  </si>
-  <si>
     <t>Ketha Mohan Krishna (moketha)</t>
   </si>
   <si>
@@ -311,14 +297,29 @@
     <t>In the project but not billable.</t>
   </si>
   <si>
-    <t>.NET-  learning Azure</t>
+    <t>Going through DevOps training</t>
+  </si>
+  <si>
+    <t>Got into Project</t>
+  </si>
+  <si>
+    <t>Working for project but not billable</t>
+  </si>
+  <si>
+    <t>Medical leave till April 30</t>
+  </si>
+  <si>
+    <t>Going through ECM KT and worked on Spring Boot POC</t>
+  </si>
+  <si>
+    <t>Going through ECM KT and Learnig Spring Core concepts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,6 +389,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -398,12 +406,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -426,22 +434,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -513,13 +510,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -833,7 +838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -1098,7 +1103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1445,7 +1450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1792,11 +1797,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1828,7 +1833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="28">
         <v>1</v>
       </c>
@@ -1839,7 +1844,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="E2" s="5">
         <v>45</v>
@@ -1857,7 +1862,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="E3" s="4">
         <v>45</v>
@@ -1956,7 +1961,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1967,7 +1972,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="E9" s="4">
         <v>45</v>
@@ -2056,7 +2061,7 @@
       <c r="C14" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="8" t="s">
         <v>61</v>
       </c>
       <c r="E14" s="5">
@@ -2074,7 +2079,7 @@
       <c r="C15" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="8" t="s">
         <v>61</v>
       </c>
       <c r="E15" s="5">
@@ -2083,37 +2088,42 @@
       <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
+      <c r="A16" s="30">
         <v>15</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="31">
         <v>156996</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="5">
-        <v>45</v>
-      </c>
-      <c r="F16" s="18"/>
+      <c r="D16" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="30">
+        <v>45</v>
+      </c>
+      <c r="F16" s="31"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="7">
         <v>185599</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="5">
-        <v>45</v>
-      </c>
-      <c r="F17" s="18"/>
+      <c r="E17" s="9">
+        <v>45</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
@@ -2125,12 +2135,13 @@
       <c r="C18" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="8" t="s">
         <v>61</v>
       </c>
       <c r="E18" s="5">
         <v>45</v>
       </c>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
@@ -2142,28 +2153,32 @@
       <c r="C19" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="8" t="s">
         <v>68</v>
       </c>
       <c r="E19" s="5">
         <v>45</v>
       </c>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="7">
         <v>139666</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="5">
-        <v>45</v>
+      <c r="E20" s="9">
+        <v>45</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -2176,12 +2191,13 @@
       <c r="C21" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="8" t="s">
         <v>72</v>
       </c>
       <c r="E21" s="5">
         <v>45</v>
       </c>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
@@ -2193,12 +2209,13 @@
       <c r="C22" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="8" t="s">
         <v>74</v>
       </c>
       <c r="E22" s="5">
         <v>45</v>
       </c>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
@@ -2210,12 +2227,13 @@
       <c r="C23" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="8" t="s">
         <v>76</v>
       </c>
       <c r="E23" s="5">
         <v>45</v>
       </c>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
@@ -2227,12 +2245,13 @@
       <c r="C24" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="8" t="s">
         <v>78</v>
       </c>
       <c r="E24" s="5">
         <v>45</v>
       </c>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
@@ -2244,140 +2263,112 @@
       <c r="C25" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="8" t="s">
         <v>61</v>
       </c>
       <c r="E25" s="5">
         <v>45</v>
       </c>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="4">
+      <c r="A26" s="32">
         <v>25</v>
       </c>
-      <c r="B26" s="29">
-        <v>46014906</v>
-      </c>
-      <c r="C26" s="29" t="s">
+      <c r="B26" s="33">
+        <v>142742</v>
+      </c>
+      <c r="C26" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="35">
+        <v>45</v>
+      </c>
+      <c r="F26" s="34"/>
+    </row>
+    <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7">
+        <v>142584</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="4">
-        <v>26</v>
-      </c>
-      <c r="B27" s="29">
-        <v>142742</v>
-      </c>
-      <c r="C27" s="29" t="s">
+      <c r="D27" s="7"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="30" t="s">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7">
+        <v>100578</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="4">
-        <v>27</v>
-      </c>
-      <c r="B28" s="29">
-        <v>142584</v>
-      </c>
-      <c r="C28" s="29" t="s">
+      <c r="D28" s="7"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="9">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7">
+        <v>176569</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="1" t="s">
+      <c r="D29" s="7"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7">
+        <v>190871</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="4">
-        <v>28</v>
-      </c>
-      <c r="B29" s="29">
-        <v>100578</v>
-      </c>
-      <c r="C29" s="29" t="s">
+      <c r="D30" s="7"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7">
+        <v>154223</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="4">
-        <v>29</v>
-      </c>
-      <c r="B30" s="29">
-        <v>176569</v>
-      </c>
-      <c r="C30" s="29" t="s">
+      <c r="D31" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="4">
-        <v>30</v>
-      </c>
-      <c r="B31" s="29">
-        <v>190871</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="4">
-        <v>31</v>
-      </c>
-      <c r="B32" s="29">
-        <v>154223</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="31">
-        <v>32</v>
-      </c>
-      <c r="B33" s="29">
-        <v>185599</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="F33" s="29" t="s">
-        <v>91</v>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/CSD_Weekly_status.xlsx
+++ b/CSD_Weekly_status.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bench_status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254E74DD-83C0-4C4C-A9F4-4312AD236888}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1793A175-83BF-42A9-B343-621230ACF89F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="RqwoGezutJHMpU0a/+kmOVPdM84rE7xz8XxhklmpIfDUI58O1NA/rEoSVpXCOUTT3jAnYZ54C8xmvr1Z5zk9AA==" workbookSaltValue="V7eB4RGkuDJUpTKGW54FKg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="week-27-03-2020" sheetId="24" r:id="rId1"/>
     <sheet name="week-03-04-2020" sheetId="25" r:id="rId2"/>
     <sheet name="week-10-04-2020" sheetId="26" r:id="rId3"/>
     <sheet name="week-17-04-2020" sheetId="27" r:id="rId4"/>
+    <sheet name="week-20-04-2020" sheetId="28" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -1800,7 +1802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -2372,6 +2374,541 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="80uX4NdaSbXFzKpf1g8wyG1rlr1My8rnGWwacAyrHF0BgpZGMo0iZoio76qHrOxPv2CHCyR1J3z8MsgT+5FX1w==" saltValue="nVSG8NMpDW4x32uEfLgFmw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C49BDAE-6242-4E5C-9056-66DB9744EC62}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.6328125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="28">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>94597</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="5">
+        <v>45</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="27.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>67908</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="4">
+        <v>45</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="44.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>156137</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="4">
+        <v>45</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>189815</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5">
+        <v>45</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>119065</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="5">
+        <v>45</v>
+      </c>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>154447</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="22">
+        <v>45</v>
+      </c>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="27">
+        <v>175816</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="26">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>185010</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="4">
+        <v>45</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="12">
+        <v>45</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>46014906</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="5">
+        <v>45</v>
+      </c>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>191221</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="5">
+        <v>45</v>
+      </c>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="29">
+        <v>156635</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="5">
+        <v>45</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="29">
+        <v>168293</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="5">
+        <v>45</v>
+      </c>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="29">
+        <v>151146</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="5">
+        <v>45</v>
+      </c>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="30">
+        <v>15</v>
+      </c>
+      <c r="B16" s="31">
+        <v>156996</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="30">
+        <v>45</v>
+      </c>
+      <c r="F16" s="31"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7">
+        <v>185599</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="9">
+        <v>45</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="29">
+        <v>96340</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="5">
+        <v>45</v>
+      </c>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="29">
+        <v>108444</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="5">
+        <v>45</v>
+      </c>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7">
+        <v>139666</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="9">
+        <v>45</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="29">
+        <v>141023</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="5">
+        <v>45</v>
+      </c>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="29">
+        <v>178684</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="5">
+        <v>45</v>
+      </c>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="29">
+        <v>187084</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="5">
+        <v>45</v>
+      </c>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="29">
+        <v>46013133</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="5">
+        <v>45</v>
+      </c>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="29">
+        <v>151158</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="5">
+        <v>45</v>
+      </c>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="32">
+        <v>25</v>
+      </c>
+      <c r="B26" s="33">
+        <v>142742</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="35">
+        <v>45</v>
+      </c>
+      <c r="F26" s="34"/>
+    </row>
+    <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="9">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7">
+        <v>142584</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7">
+        <v>100578</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="9">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7">
+        <v>176569</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7">
+        <v>190871</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7">
+        <v>154223</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
